--- a/biology/Médecine/Philippe_Jeammet/Philippe_Jeammet.xlsx
+++ b/biology/Médecine/Philippe_Jeammet/Philippe_Jeammet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Philippe Jeammet est un pédopsychiatre, professeur des universités – praticien hospitalier (PU-PH) émérite de psychiatrie et psychanalyste français. Il est spécialiste de l'enfant et de l'adolescent, notamment des troubles du comportement chez les jeunes et auteur de nombreux ouvrages sur ce sujet. Il a notamment écrit un livre intitulé "lettre aux couple d'aujourd'hui" avec sa femme Nicole Jeammet et Corinne Renou-Nativel. 
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">"Pendant son adolescence, Philippe Jeammet se destinait à la philosophie. Élève brillant, après son baccalauréat, en Dordogne, il avait été admis au lycée Louis le Grand."[1] Il se dirige finalement vers la médecine à Paris, et fait son internat en psychiatrie. En 1969, il est nommé chef de clinique dans le service de psychiatrie générale de l’hôpital de la Cité Universitaire[2]. Il a été professeur de psychiatrie de l'enfant et de l'adolescent à l'université Pierre-et-Marie-Curie, où il crée un DU intitulé « Adolescents difficiles, approche psychopathologique et éducative ». Il a été chef de service du département de psychiatrie de l'adolescent et du jeune adulte à l'Institut mutualiste Montsouris.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">"Pendant son adolescence, Philippe Jeammet se destinait à la philosophie. Élève brillant, après son baccalauréat, en Dordogne, il avait été admis au lycée Louis le Grand." Il se dirige finalement vers la médecine à Paris, et fait son internat en psychiatrie. En 1969, il est nommé chef de clinique dans le service de psychiatrie générale de l’hôpital de la Cité Universitaire. Il a été professeur de psychiatrie de l'enfant et de l'adolescent à l'université Pierre-et-Marie-Curie, où il crée un DU intitulé « Adolescents difficiles, approche psychopathologique et éducative ». Il a été chef de service du département de psychiatrie de l'adolescent et du jeune adulte à l'Institut mutualiste Montsouris.
 Il a été psychanalyste, membre de la Société psychanalytique de Paris.
-Il est membre du conseil scientifique de la revue Adolescence[3], membre de la Société française de psychiatrie de l'enfant et de l'adolescent, et a été président de l'École des parents et des Éducateurs Île-de-France.
+Il est membre du conseil scientifique de la revue Adolescence, membre de la Société française de psychiatrie de l'enfant et de l'adolescent, et a été président de l'École des parents et des Éducateurs Île-de-France.
 </t>
         </is>
       </c>
